--- a/biology/Botanique/Brosimum/Brosimum.xlsx
+++ b/biology/Botanique/Brosimum/Brosimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brosimum est un genre de plantes à fleurs de la famille des Moraceae, représenté par des arbres, des arbustes ou des lianes. Ce sont des plantes tropicales originaires des Amériques.
 Le "Noix-pain" (B. alicastrum) était utilisée par les Mayas pour sa noix comestible. 
@@ -513,7 +525,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brosimum acutifolium
 Brosimum alicastrum - Noix-pain
@@ -529,9 +543,7 @@
 Brosimum parinarioides ssp. parinarioides
 Brosimum potabile
 Brosimum rubescens Taub. (= B. paraense)
-Brosimum utile
-Ancienne classification
-Pseudolmedia spuria (Sw.) Griseb. (as B. spurium Sw.)</t>
+Brosimum utile</t>
         </is>
       </c>
     </row>
@@ -556,18 +568,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ancienne classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pseudolmedia spuria (Sw.) Griseb. (as B. spurium Sw.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brosimum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brosimum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 févr. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 févr. 2011) :
 Brosimum alicastrum
 Brosimum guianense
 Brosimum lactescens
 Brosimum rubescens
 Brosimum utile
-Selon ITIS      (22 févr. 2011)[2] :
+Selon ITIS      (22 févr. 2011) :
 Brosimum alicastrum Sw.
 Brosimum guianense (Aublet) Huber
 Brosimum utile (Kunth) Pittier</t>
